--- a/documentation/specification/media/Матрица требований.xlsx
+++ b/documentation/specification/media/Матрица требований.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56B45AA-7375-4314-B1AE-E2F6659051FD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1455" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1455" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="349">
   <si>
     <t>№</t>
   </si>
@@ -193,9 +194,6 @@
     <t>3.1.5</t>
   </si>
   <si>
-    <t>Требованияк безопасности</t>
-  </si>
-  <si>
     <t>3.1.6</t>
   </si>
   <si>
@@ -839,12 +837,239 @@
   </si>
   <si>
     <t>Просмотр информации о материале студента</t>
+  </si>
+  <si>
+    <t>Руководитель проекта</t>
+  </si>
+  <si>
+    <t>Учебный план</t>
+  </si>
+  <si>
+    <t>Аналитик</t>
+  </si>
+  <si>
+    <t>Протокол совещания</t>
+  </si>
+  <si>
+    <t>Архитектор</t>
+  </si>
+  <si>
+    <t>Дизайнер</t>
+  </si>
+  <si>
+    <t>Архитектор, аналитик</t>
+  </si>
+  <si>
+    <t>Аналитик, дизайнер</t>
+  </si>
+  <si>
+    <t>ФЗ "О персональных данных"</t>
+  </si>
+  <si>
+    <t>Разработчик</t>
+  </si>
+  <si>
+    <t>Требования к безопасности</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>VkBot</t>
+  </si>
+  <si>
+    <t>MobileApp</t>
+  </si>
+  <si>
+    <t>Название отражает суть и легко запоминается из-за созвучия</t>
+  </si>
+  <si>
+    <t>Сроки начала и окончания разработки напрямую
+определяются траекторией обучения</t>
+  </si>
+  <si>
+    <t>Основание определяет тракетория обучения</t>
+  </si>
+  <si>
+    <t>Имеется возможность настраивать расписание в электронном виде, а также просматривать его</t>
+  </si>
+  <si>
+    <t>Имеется возможность отмечать посещаемость студентов группы, используя АС</t>
+  </si>
+  <si>
+    <t>Имеется возможность хранить учебные материалы, которые доступны всем студентам группы</t>
+  </si>
+  <si>
+    <t>Имеется возможность 
+использования личного хранилища учебных материалов каждого студента в отдельности</t>
+  </si>
+  <si>
+    <t>Имеется возможность отправлять учебные материалы преподавателям, используя АС</t>
+  </si>
+  <si>
+    <t>Подсистемы выполняют свое прямое назначение, позволяя АС функционировать</t>
+  </si>
+  <si>
+    <t>АС функционирует, используя компонент архитектуры Web</t>
+  </si>
+  <si>
+    <t>АС функционирует, используя компонент архитектуры VkBot</t>
+  </si>
+  <si>
+    <t>АС функционирует, используя компонент архитектуры MobileApp</t>
+  </si>
+  <si>
+    <t>АС предоставляет возможность администрирования только через веб-портал</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зам. Старосты являются вспомогательными администраторами </t>
+  </si>
+  <si>
+    <t>Старосты являются администраторами конкретных групп</t>
+  </si>
+  <si>
+    <t>Студенты являеются участниками групп</t>
+  </si>
+  <si>
+    <t>Администратор является управляющим всей АС</t>
+  </si>
+  <si>
+    <t>Интерфес АС на русском языке</t>
+  </si>
+  <si>
+    <t>АС требует от пользователей начальных навыков работы с веб-браузером и мобильными приложениями</t>
+  </si>
+  <si>
+    <t>Администрирование АС требует дополнительных навыков по работе с АС</t>
+  </si>
+  <si>
+    <t>Осуществляется обработка всевозможных действий пользователей, которые могут привести к непредвиденному завершению работы АС</t>
+  </si>
+  <si>
+    <t>Исключительные ситуации при работе с АС, приводящие к сбою в подсистемах, сведены к минимуму</t>
+  </si>
+  <si>
+    <t>Имеется возможность использование графического интерфейса при работе с АС с помощью веб-портала</t>
+  </si>
+  <si>
+    <t>Имеется возможность использовать графический интерфейс мобильного приложения при работе с АС с помощью MobileApp</t>
+  </si>
+  <si>
+    <t>Используется защищенная передача данных</t>
+  </si>
+  <si>
+    <t>Пользователь имеет доступ к персональной информации только после авторизации/аутентификации</t>
+  </si>
+  <si>
+    <t>Пользователь администратор имеет доступ к панели администрирования только после авторизации/аутентификации администратора</t>
+  </si>
+  <si>
+    <t>Предоставляется возможность войти в АС через мобильное приложение</t>
+  </si>
+  <si>
+    <t>Предоставляется возможность зарегистрироваться в АС через мобильное приложение</t>
+  </si>
+  <si>
+    <t>Имеется возможность выйти со своей учетной записи АС</t>
+  </si>
+  <si>
+    <t>Имеется возможность войти в АС, используя VkBot</t>
+  </si>
+  <si>
+    <t>Имеется возможность просмотреть свою посещаемость, используя VkBot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имеется возможность посмотреть расписание занятий, используя VkBot </t>
+  </si>
+  <si>
+    <t>Предоставляется возможность просмотреть список всех созданных групп через мобильное приложение</t>
+  </si>
+  <si>
+    <t>Предоставляется возможность просмотреть список учебных материалов в личном хранилище пользователя через мобильное приложение</t>
+  </si>
+  <si>
+    <t>Предоставляется возможность просмотреть список групп, в которые был приглашен пользователь, через мобильное приложение</t>
+  </si>
+  <si>
+    <t>Графический интерфейс изменяется в зависимости от используемого утсройства</t>
+  </si>
+  <si>
+    <t>Имеет возможность войти в АС, используя веб-портал</t>
+  </si>
+  <si>
+    <t>Имеется возможность зарегистрироваться в АС, используя веб-портал</t>
+  </si>
+  <si>
+    <t>Имеется возможность посмотреть информацию пользователя после входа/регистрации в АС, используя веб-портал</t>
+  </si>
+  <si>
+    <t>Имеется возможность посмотреть информацию группы, в которой состоит пользователь, используя веб-портал</t>
+  </si>
+  <si>
+    <t>Имеется возможность просмотреть/загружать/удалять файлы пользователя в личном хранилище, используя веб-портал</t>
+  </si>
+  <si>
+    <t>Имеется возможность добавлять преподавателей, ведущих у группы, используя веб-портал</t>
+  </si>
+  <si>
+    <t>Имеется возможность добавлять дисциплины группы, используя веб-портал</t>
+  </si>
+  <si>
+    <t>Имеется возможность создать группу, используя веб-портал</t>
+  </si>
+  <si>
+    <t>Пользователь, создавший группу, становится старостой</t>
+  </si>
+  <si>
+    <t>Имеется возможность назначения зам.старост старостой группы, используя веб-портал</t>
+  </si>
+  <si>
+    <t>Имеется возможность назначения нового.старосты старостой группы, используя веб-портал</t>
+  </si>
+  <si>
+    <t>Имеется возможность кнопки после аутентификации и.авторизации старостой группы, используя веб-портал</t>
+  </si>
+  <si>
+    <t>Имеется возможность подвижных.АС старостой группы, используя веб-портал</t>
+  </si>
+  <si>
+    <t>Имеется возможность.предъявляются старостой группы, используя веб-портал</t>
+  </si>
+  <si>
+    <t>Имеется возможность обслуживанию ремонту и хранению компонентов.системы старостой группы, используя веб-портал</t>
+  </si>
+  <si>
+    <t>Имеется возможность добавления/одобрения пользователей в группу старостой группы, его заместителями, используя веб-портал</t>
+  </si>
+  <si>
+    <t>Имеется возможность использовать заготовленный набор команд при работе с АС с помощью VkBot</t>
+  </si>
+  <si>
+    <t>Имеется возможность вести учет посещаемость студентов группы старостой группы, его заместителями, используя веб-портал</t>
+  </si>
+  <si>
+    <t>Имеется возможность отправки учебных материалов из личного хранилища студента преподавателям, используя веб-портал</t>
+  </si>
+  <si>
+    <t>Имеется возможность загрузки материалов в хранилище группы, используя веб-портал</t>
+  </si>
+  <si>
+    <t>Имеется возможность настраивать/просматривать расписание группы, используя веб-портал</t>
+  </si>
+  <si>
+    <t>Имеется возможность перезапуска ПО</t>
+  </si>
+  <si>
+    <t>Подсистема взаимодействия с базой данных осуществляет работу с базой данных</t>
+  </si>
+  <si>
+    <t>Подсистема маршрутизации API осуществляет раьоту с HTTP-запросами</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -940,7 +1165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -958,6 +1183,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1051,6 +1279,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1086,6 +1331,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1261,21 +1523,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A202" sqref="A99:B202"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="154.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="35" style="5" customWidth="1"/>
     <col min="5" max="5" width="44.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.42578125" style="9" customWidth="1"/>
     <col min="7" max="7" width="28.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="5"/>
@@ -1314,6 +1576,7 @@
       <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1322,13 +1585,24 @@
       <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>31</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:8" collapsed="1" x14ac:dyDescent="0.25">
@@ -1338,6 +1612,13 @@
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="C5" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -1346,13 +1627,21 @@
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="31.5" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1362,6 +1651,7 @@
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -1370,6 +1660,10 @@
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -1378,6 +1672,13 @@
       <c r="B11" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="C11" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -1386,1132 +1687,1959 @@
       <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E13" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E14" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E15" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E16" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E17" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" s="5" t="s">
+      <c r="B38" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="7" t="s">
+      <c r="C38" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
+      <c r="B39" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B40" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="E40" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E41" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="C44" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="B45" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="E46" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="E47" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E48" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="C49" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E51" s="9"/>
+      <c r="F51" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="E54" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+      <c r="B55" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="E55" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
+      <c r="B56" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E56" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E57" s="9"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" s="9"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+      <c r="B59" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E59" s="9"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E60" s="9"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E61" s="9"/>
+    </row>
+    <row r="62" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="E91" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
+      <c r="B93" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E94" s="9"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E95" s="9"/>
+    </row>
+    <row r="96" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E99" s="9"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E100" s="9"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E101" s="9"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B91" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B93" s="7" t="s">
+      <c r="E102" s="9"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E103" s="9"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E104" s="9"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="8" t="s">
+      <c r="B105" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E105" s="9"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B104" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B105" s="7" t="s">
+      <c r="B106" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E106" s="9"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
+      <c r="B107" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B107" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E107" s="9"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E108" s="9"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E109" s="9"/>
+    </row>
+    <row r="110" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B111" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E111" s="9"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="5" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E112" s="9"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B113" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="E113" s="9"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E114" s="9"/>
+    </row>
+    <row r="115" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B116" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="E116" s="9"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E117" s="9"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E118" s="9"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="E119" s="9"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B120" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E120" s="9"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="5" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="5" t="s">
+      <c r="E121" s="9"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="5" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="5" t="s">
+      <c r="E122" s="9"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B123" s="5" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="5" t="s">
+      <c r="E123" s="9"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B124" s="5" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E124" s="9"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E125" s="9"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E126" s="9"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="E127" s="9"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B128" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E128" s="9"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="5" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="5" t="s">
+      <c r="E129" s="9"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="5" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E130" s="9"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E131" s="9"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E132" s="9"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E133" s="9"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="E134" s="9"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E135" s="9"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B136" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E136" s="9"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B137" s="8" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="8" t="s">
+      <c r="E137" s="9"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B138" s="8" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="8" t="s">
+      <c r="E138" s="9"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B139" s="8" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="8" t="s">
+      <c r="E139" s="9"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B140" s="8" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="8" t="s">
+      <c r="E140" s="9"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B141" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E141" s="9"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B142" s="8" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="8" t="s">
+      <c r="E142" s="9"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B143" s="8" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E143" s="9"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B144" s="8"/>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E144" s="9"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B145" s="8"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E145" s="9"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="E146" s="9"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E147" s="9"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B148" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E148" s="9"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B149" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E149" s="9"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B150" s="8" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="8" t="s">
+      <c r="E150" s="9"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B151" s="8" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E151" s="9"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E152" s="9"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E153" s="9"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="E154" s="9"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B155" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E155" s="9"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B156" s="5" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="5" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E156" s="9"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B157" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E157" s="9"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B158" s="5" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B158" s="5" t="s">
+      <c r="E158" s="9"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B159" s="5" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B159" s="5" t="s">
+      <c r="E159" s="9"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B160" s="5" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B160" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E160" s="9"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E161" s="9"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E162" s="9"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="E163" s="9"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B164" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E164" s="9"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B165" s="5" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B165" s="5" t="s">
+      <c r="E165" s="9"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B166" s="5" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B166" s="5" t="s">
+      <c r="E166" s="9"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B167" s="5" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B167" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E167" s="9"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E168" s="9"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E169" s="9"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B170" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E170" s="9"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B171" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E171" s="9"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B172" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E172" s="9"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B173" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E173" s="9"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B174" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E174" s="9"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B175" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E175" s="9"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E176" s="9"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E177" s="9"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B178" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B171" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B172" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B173" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B174" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B175" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="8" t="s">
+      <c r="E178" s="9"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B179" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="E179" s="9"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B180" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E180" s="9"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B181" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E181" s="9"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B182" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E182" s="9"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B183" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E183" s="9"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E184" s="9"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E185" s="9"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E186" s="9"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E187" s="9"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B188" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E188" s="9"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B189" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E189" s="9"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B190" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E190" s="9"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B191" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E191" s="9"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B192" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="E192" s="9"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E193" s="9"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E194" s="9"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E195" s="9"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B196" s="5" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B179" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B180" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B181" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B182" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B183" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="E196" s="9"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B197" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B187" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B188" s="5" t="s">
+      <c r="E197" s="9"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B198" s="5" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B189" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B190" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B191" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B192" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="8" t="s">
+      <c r="E198" s="9"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B199" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B196" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B197" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B198" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B199" s="5" t="s">
+      <c r="E199" s="9"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B200" s="5" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B200" s="5" t="s">
+      <c r="E200" s="9"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B201" s="5" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B201" s="5" t="s">
-        <v>274</v>
-      </c>
+      <c r="E201" s="9"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E202" s="9"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E203" s="9"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E204" s="9"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E205" s="9"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E206" s="9"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E207" s="9"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E208" s="9"/>
+    </row>
+    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E209" s="9"/>
+    </row>
+    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E210" s="9"/>
+    </row>
+    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E211" s="9"/>
+    </row>
+    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E212" s="9"/>
+    </row>
+    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E213" s="9"/>
+    </row>
+    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E214" s="9"/>
+    </row>
+    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E215" s="9"/>
+    </row>
+    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E216" s="9"/>
+    </row>
+    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E217" s="9"/>
+    </row>
+    <row r="218" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E218" s="9"/>
+    </row>
+    <row r="219" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E219" s="9"/>
+    </row>
+    <row r="220" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E220" s="9"/>
+    </row>
+    <row r="221" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E221" s="9"/>
+    </row>
+    <row r="222" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E222" s="9"/>
+    </row>
+    <row r="223" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E223" s="9"/>
+    </row>
+    <row r="224" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E224" s="9"/>
+    </row>
+    <row r="225" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E225" s="9"/>
+    </row>
+    <row r="226" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E226" s="9"/>
+    </row>
+    <row r="227" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E227" s="9"/>
+    </row>
+    <row r="228" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E228" s="9"/>
+    </row>
+    <row r="229" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E229" s="9"/>
+    </row>
+    <row r="230" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E230" s="9"/>
+    </row>
+    <row r="231" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E231" s="9"/>
+    </row>
+    <row r="232" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E232" s="9"/>
+    </row>
+    <row r="233" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E233" s="9"/>
+    </row>
+    <row r="234" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E234" s="9"/>
+    </row>
+    <row r="235" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E235" s="9"/>
+    </row>
+    <row r="236" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E236" s="9"/>
+    </row>
+    <row r="237" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E237" s="9"/>
+    </row>
+    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E238" s="9"/>
+    </row>
+    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E239" s="9"/>
+    </row>
+    <row r="240" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E240" s="9"/>
+    </row>
+    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E241" s="9"/>
+    </row>
+    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E242" s="9"/>
+    </row>
+    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E243" s="9"/>
+    </row>
+    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E244" s="9"/>
+    </row>
+    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E245" s="9"/>
+    </row>
+    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E246" s="9"/>
+    </row>
+    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E247" s="9"/>
+    </row>
+    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E248" s="9"/>
+    </row>
+    <row r="249" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E249" s="9"/>
+    </row>
+    <row r="250" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E250" s="9"/>
+    </row>
+    <row r="251" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E251" s="9"/>
+    </row>
+    <row r="252" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E252" s="9"/>
+    </row>
+    <row r="253" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E253" s="9"/>
+    </row>
+    <row r="254" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E254" s="9"/>
+    </row>
+    <row r="255" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E255" s="9"/>
+    </row>
+    <row r="256" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E256" s="9"/>
+    </row>
+    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E257" s="9"/>
+    </row>
+    <row r="258" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E258" s="9"/>
+    </row>
+    <row r="259" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E259" s="9"/>
+    </row>
+    <row r="260" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E260" s="9"/>
+    </row>
+    <row r="261" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E261" s="9"/>
+    </row>
+    <row r="262" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E262" s="9"/>
+    </row>
+    <row r="263" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E263" s="9"/>
+    </row>
+    <row r="264" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E264" s="9"/>
+    </row>
+    <row r="265" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E265" s="9"/>
+    </row>
+    <row r="266" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E266" s="9"/>
+    </row>
+    <row r="267" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E267" s="9"/>
+    </row>
+    <row r="268" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E268" s="9"/>
+    </row>
+    <row r="269" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E269" s="9"/>
+    </row>
+    <row r="270" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E270" s="9"/>
+    </row>
+    <row r="271" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E271" s="9"/>
+    </row>
+    <row r="272" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E272" s="9"/>
+    </row>
+    <row r="273" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E273" s="9"/>
+    </row>
+    <row r="274" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E274" s="9"/>
+    </row>
+    <row r="275" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E275" s="9"/>
+    </row>
+    <row r="276" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E276" s="9"/>
+    </row>
+    <row r="277" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E277" s="9"/>
+    </row>
+    <row r="278" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E278" s="9"/>
+    </row>
+    <row r="279" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E279" s="9"/>
+    </row>
+    <row r="280" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E280" s="9"/>
+    </row>
+    <row r="281" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E281" s="9"/>
+    </row>
+    <row r="282" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E282" s="9"/>
+    </row>
+    <row r="283" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E283" s="9"/>
+    </row>
+    <row r="284" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E284" s="9"/>
+    </row>
+    <row r="285" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E285" s="9"/>
+    </row>
+    <row r="286" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E286" s="9"/>
+    </row>
+    <row r="287" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E287" s="9"/>
+    </row>
+    <row r="288" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E288" s="9"/>
+    </row>
+    <row r="289" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E289" s="9"/>
+    </row>
+    <row r="290" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E290" s="9"/>
+    </row>
+    <row r="291" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E291" s="9"/>
+    </row>
+    <row r="292" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E292" s="9"/>
+    </row>
+    <row r="293" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E293" s="9"/>
+    </row>
+    <row r="294" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E294" s="9"/>
+    </row>
+    <row r="295" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E295" s="9"/>
+    </row>
+    <row r="296" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E296" s="9"/>
+    </row>
+    <row r="297" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E297" s="9"/>
+    </row>
+    <row r="298" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E298" s="9"/>
+    </row>
+    <row r="299" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E299" s="9"/>
+    </row>
+    <row r="300" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E300" s="9"/>
+    </row>
+    <row r="301" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E301" s="9"/>
+    </row>
+    <row r="302" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E302" s="9"/>
+    </row>
+    <row r="303" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E303" s="9"/>
+    </row>
+    <row r="304" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E304" s="9"/>
+    </row>
+    <row r="305" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E305" s="9"/>
+    </row>
+    <row r="306" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E306" s="9"/>
+    </row>
+    <row r="307" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E307" s="9"/>
+    </row>
+    <row r="308" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E308" s="9"/>
+    </row>
+    <row r="309" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E309" s="9"/>
+    </row>
+    <row r="310" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E310" s="9"/>
+    </row>
+    <row r="311" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E311" s="9"/>
+    </row>
+    <row r="312" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E312" s="9"/>
+    </row>
+    <row r="313" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E313" s="9"/>
+    </row>
+    <row r="314" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E314" s="9"/>
+    </row>
+    <row r="315" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E315" s="9"/>
+    </row>
+    <row r="316" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E316" s="9"/>
+    </row>
+    <row r="317" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E317" s="9"/>
+    </row>
+    <row r="318" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E318" s="9"/>
+    </row>
+    <row r="319" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E319" s="9"/>
+    </row>
+    <row r="320" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E320" s="9"/>
+    </row>
+    <row r="321" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E321" s="9"/>
+    </row>
+    <row r="322" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E322" s="9"/>
+    </row>
+    <row r="323" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E323" s="9"/>
+    </row>
+    <row r="324" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E324" s="9"/>
+    </row>
+    <row r="325" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E325" s="9"/>
+    </row>
+    <row r="326" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E326" s="9"/>
+    </row>
+    <row r="327" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E327" s="9"/>
+    </row>
+    <row r="328" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E328" s="9"/>
+    </row>
+    <row r="329" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E329" s="9"/>
+    </row>
+    <row r="330" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E330" s="9"/>
+    </row>
+    <row r="331" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E331" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
